--- a/source.xlsx
+++ b/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hello_Layout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA90536-6977-47B7-9332-E222F5F8F57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89EB8700-6619-4724-A219-11967CECA018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,27 +51,15 @@
     <t>Indomaret</t>
   </si>
   <si>
-    <t>images/blueband.jpeg</t>
-  </si>
-  <si>
     <t>margarin filma</t>
   </si>
   <si>
-    <t>images/margarin_filma.jpeg</t>
-  </si>
-  <si>
     <t>telur ayam</t>
   </si>
   <si>
-    <t>images/telur_ayam.jpeg</t>
-  </si>
-  <si>
     <t>roti tawar kupas</t>
   </si>
   <si>
-    <t>images/roti_tawar.jpeg</t>
-  </si>
-  <si>
     <t>non food</t>
   </si>
   <si>
@@ -100,6 +88,18 @@
   </si>
   <si>
     <t>Alfamart</t>
+  </si>
+  <si>
+    <t>images/margarin_filma.jpg</t>
+  </si>
+  <si>
+    <t>images/roti_tawar.jpg</t>
+  </si>
+  <si>
+    <t>images/telur_ayam.jpg</t>
+  </si>
+  <si>
+    <t>images/blue_band.jpg</t>
   </si>
 </sst>
 </file>
@@ -472,12 +472,12 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
     <col min="5" max="5" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -512,7 +512,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -520,7 +520,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>12200</v>
@@ -529,7 +529,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -537,7 +537,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>30000</v>
@@ -546,7 +546,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -554,7 +554,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>20000</v>
@@ -563,15 +563,15 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>40000</v>
@@ -580,15 +580,15 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>26000</v>
@@ -597,15 +597,15 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>10000</v>
@@ -614,15 +614,15 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>13000</v>
@@ -631,7 +631,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -642,13 +642,13 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
         <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -656,16 +656,16 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>12200</v>
+        <v>11000</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -673,16 +673,16 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -690,84 +690,84 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>40000</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>26000</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>10000</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>13000</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
